--- a/migration_data.xlsx
+++ b/migration_data.xlsx
@@ -365,202 +365,202 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Country</t>
+          <t>Country Origin Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Belarus [BLR]</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czech Republic [CZE]</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Germany [DEU]</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Hungary [HUN]</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Macedonia, FYR</t>
+          <t>Macedonia, FYR [MKD]</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Russian Federation [RUS]</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Ukraine [UKR]</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Austria [AUT]</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Belgium [BEL]</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Bulgaria [BGR]</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Croatia [HRV]</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Denmark [DNK]</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Estonia [EST]</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>France [FRA]</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Finland [FIN]</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Georgia [GEO]</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Greece [GRC]</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Iceland [ISL]</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Ireland [IRL]</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italy [ITA]</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Liechtenstein [LIE]</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Lithuani</t>
+          <t>Lithuania [LTU]</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Luxembourg [LUX]</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Netherlands [NLD]</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Norway [NOR]</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Poland [POL]</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Portugal [PRT]</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Romania [ROU]</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Slovenia [SVN]</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Spain [ESP]</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Sweden [SWE]</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Switzerland [CHE]</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Slovak Republic</t>
+          <t>United Kingdom [GBR]</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Albania [ALB]</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Bosnia and Herzegovina [BIH]</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cyprus [CYP]</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Latvia [LVA]</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Monaco [MCO]</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Slovak Republic [SVK]</t>
         </is>
       </c>
     </row>
